--- a/docs/SharkTrends-Template.xlsx
+++ b/docs/SharkTrends-Template.xlsx
@@ -1,34 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11017"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/2D9E5F71-6FD1-4E5E-B2AB-6543C4273BD3/Library/Application Support/Drafts/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26B1F281-D403-F744-8126-36DAB66A51BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Class</t>
   </si>
@@ -150,25 +133,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,24 +169,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="11"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor indexed="12"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -203,64 +201,175 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff92d050"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff0000"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -281,119 +390,25 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -402,76 +417,66 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -482,582 +487,2905 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F90400-AF1F-8241-979D-ACC0E846C12D}">
-  <dimension ref="A1:FC1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:FC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:FC1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="6" max="6" width="15.73828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.02734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.35546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.29296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.6796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.89453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.01171875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.890625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.13671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.17578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="31.4765625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.3046875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.9296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.66015625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.8359375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.01171875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.953125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.17578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="10.0859375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.89453125" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.46875" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.8516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.3516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.3516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.6719" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85156" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.8516" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.8516" style="1" customWidth="1"/>
+    <col min="17" max="17" width="12.8516" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85156" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.1719" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.1719" style="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="1" customWidth="1"/>
+    <col min="22" max="22" width="31.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="27.3516" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.6719" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.8516" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85156" style="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.85156" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.85156" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20.1719" style="1" customWidth="1"/>
+    <col min="33" max="34" width="8.85156" style="1" customWidth="1"/>
+    <col min="35" max="35" width="10.1719" style="1" customWidth="1"/>
+    <col min="36" max="36" width="10.8516" style="1" customWidth="1"/>
+    <col min="37" max="38" width="9.85156" style="1" customWidth="1"/>
+    <col min="39" max="39" width="15.5" style="1" customWidth="1"/>
+    <col min="40" max="159" width="8.85156" style="1" customWidth="1"/>
+    <col min="160" max="256" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:159" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="29" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s" s="6">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" t="s" s="4">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" t="s" s="4">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" t="s" s="4">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s" s="7">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s" s="3">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" t="s" s="4">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" t="s" s="4">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" t="s" s="3">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" t="s" s="8">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" t="s" s="8">
         <v>34</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" t="s" s="8">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" t="s" s="4">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" t="s" s="8">
         <v>38</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="9">
         <v>1900</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="10">
         <v>1901</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="10">
         <v>1902</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="10">
         <v>1903</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="10">
         <v>1904</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="10">
         <v>1905</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="10">
         <v>1906</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="10">
         <v>1907</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="10">
         <v>1908</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="10">
         <v>1909</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="10">
         <v>1910</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="10">
         <v>1911</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="10">
         <v>1912</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" s="10">
         <v>1913</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" s="10">
         <v>1914</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" s="10">
         <v>1915</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" s="10">
         <v>1916</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" s="10">
         <v>1917</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" s="10">
         <v>1918</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" s="10">
         <v>1919</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BH1" s="10">
         <v>1920</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BI1" s="10">
         <v>1921</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BJ1" s="10">
         <v>1922</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BK1" s="10">
         <v>1923</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BL1" s="10">
         <v>1924</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BM1" s="10">
         <v>1925</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BN1" s="10">
         <v>1926</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BO1" s="10">
         <v>1927</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BP1" s="10">
         <v>1928</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BQ1" s="10">
         <v>1929</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="BR1" s="10">
         <v>1930</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="BS1" s="10">
         <v>1931</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BT1" s="10">
         <v>1932</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="BU1" s="10">
         <v>1933</v>
       </c>
-      <c r="BV1" s="1">
+      <c r="BV1" s="10">
         <v>1934</v>
       </c>
-      <c r="BW1" s="1">
+      <c r="BW1" s="10">
         <v>1935</v>
       </c>
-      <c r="BX1" s="1">
+      <c r="BX1" s="10">
         <v>1936</v>
       </c>
-      <c r="BY1" s="1">
+      <c r="BY1" s="10">
         <v>1937</v>
       </c>
-      <c r="BZ1" s="1">
+      <c r="BZ1" s="10">
         <v>1938</v>
       </c>
-      <c r="CA1" s="1">
+      <c r="CA1" s="10">
         <v>1939</v>
       </c>
-      <c r="CB1" s="1">
+      <c r="CB1" s="10">
         <v>1940</v>
       </c>
-      <c r="CC1" s="1">
+      <c r="CC1" s="10">
         <v>1941</v>
       </c>
-      <c r="CD1" s="1">
+      <c r="CD1" s="10">
         <v>1942</v>
       </c>
-      <c r="CE1" s="1">
+      <c r="CE1" s="10">
         <v>1943</v>
       </c>
-      <c r="CF1" s="1">
+      <c r="CF1" s="10">
         <v>1944</v>
       </c>
-      <c r="CG1" s="1">
+      <c r="CG1" s="10">
         <v>1945</v>
       </c>
-      <c r="CH1" s="1">
+      <c r="CH1" s="10">
         <v>1946</v>
       </c>
-      <c r="CI1" s="1">
+      <c r="CI1" s="10">
         <v>1947</v>
       </c>
-      <c r="CJ1" s="1">
+      <c r="CJ1" s="10">
         <v>1948</v>
       </c>
-      <c r="CK1" s="1">
+      <c r="CK1" s="10">
         <v>1949</v>
       </c>
-      <c r="CL1" s="1">
+      <c r="CL1" s="10">
         <v>1950</v>
       </c>
-      <c r="CM1" s="1">
+      <c r="CM1" s="10">
         <v>1951</v>
       </c>
-      <c r="CN1" s="1">
+      <c r="CN1" s="10">
         <v>1952</v>
       </c>
-      <c r="CO1" s="1">
+      <c r="CO1" s="10">
         <v>1953</v>
       </c>
-      <c r="CP1" s="1">
+      <c r="CP1" s="10">
         <v>1954</v>
       </c>
-      <c r="CQ1" s="1">
+      <c r="CQ1" s="10">
         <v>1955</v>
       </c>
-      <c r="CR1" s="1">
+      <c r="CR1" s="10">
         <v>1956</v>
       </c>
-      <c r="CS1" s="1">
+      <c r="CS1" s="10">
         <v>1957</v>
       </c>
-      <c r="CT1" s="1">
+      <c r="CT1" s="10">
         <v>1958</v>
       </c>
-      <c r="CU1" s="1">
+      <c r="CU1" s="10">
         <v>1959</v>
       </c>
-      <c r="CV1" s="1">
+      <c r="CV1" s="10">
         <v>1960</v>
       </c>
-      <c r="CW1" s="1">
+      <c r="CW1" s="10">
         <v>1961</v>
       </c>
-      <c r="CX1" s="1">
+      <c r="CX1" s="10">
         <v>1962</v>
       </c>
-      <c r="CY1" s="1">
+      <c r="CY1" s="10">
         <v>1963</v>
       </c>
-      <c r="CZ1" s="1">
+      <c r="CZ1" s="10">
         <v>1964</v>
       </c>
-      <c r="DA1" s="1">
+      <c r="DA1" s="10">
         <v>1965</v>
       </c>
-      <c r="DB1" s="1">
+      <c r="DB1" s="10">
         <v>1966</v>
       </c>
-      <c r="DC1" s="1">
+      <c r="DC1" s="10">
         <v>1967</v>
       </c>
-      <c r="DD1" s="1">
+      <c r="DD1" s="10">
         <v>1968</v>
       </c>
-      <c r="DE1" s="1">
+      <c r="DE1" s="10">
         <v>1969</v>
       </c>
-      <c r="DF1" s="1">
+      <c r="DF1" s="10">
         <v>1970</v>
       </c>
-      <c r="DG1" s="1">
+      <c r="DG1" s="10">
         <v>1971</v>
       </c>
-      <c r="DH1" s="1">
+      <c r="DH1" s="10">
         <v>1972</v>
       </c>
-      <c r="DI1" s="1">
+      <c r="DI1" s="10">
         <v>1973</v>
       </c>
-      <c r="DJ1" s="1">
+      <c r="DJ1" s="10">
         <v>1974</v>
       </c>
-      <c r="DK1" s="1">
+      <c r="DK1" s="10">
         <v>1975</v>
       </c>
-      <c r="DL1" s="1">
+      <c r="DL1" s="10">
         <v>1976</v>
       </c>
-      <c r="DM1" s="1">
+      <c r="DM1" s="10">
         <v>1977</v>
       </c>
-      <c r="DN1" s="1">
+      <c r="DN1" s="10">
         <v>1978</v>
       </c>
-      <c r="DO1" s="1">
+      <c r="DO1" s="10">
         <v>1979</v>
       </c>
-      <c r="DP1" s="1">
+      <c r="DP1" s="10">
         <v>1980</v>
       </c>
-      <c r="DQ1" s="1">
+      <c r="DQ1" s="10">
         <v>1981</v>
       </c>
-      <c r="DR1" s="1">
+      <c r="DR1" s="10">
         <v>1982</v>
       </c>
-      <c r="DS1" s="1">
+      <c r="DS1" s="10">
         <v>1983</v>
       </c>
-      <c r="DT1" s="1">
+      <c r="DT1" s="10">
         <v>1984</v>
       </c>
-      <c r="DU1" s="1">
+      <c r="DU1" s="10">
         <v>1985</v>
       </c>
-      <c r="DV1" s="1">
+      <c r="DV1" s="10">
         <v>1986</v>
       </c>
-      <c r="DW1" s="1">
+      <c r="DW1" s="10">
         <v>1987</v>
       </c>
-      <c r="DX1" s="1">
+      <c r="DX1" s="10">
         <v>1988</v>
       </c>
-      <c r="DY1" s="1">
+      <c r="DY1" s="10">
         <v>1989</v>
       </c>
-      <c r="DZ1" s="1">
+      <c r="DZ1" s="10">
         <v>1990</v>
       </c>
-      <c r="EA1" s="1">
+      <c r="EA1" s="10">
         <v>1991</v>
       </c>
-      <c r="EB1" s="1">
+      <c r="EB1" s="10">
         <v>1992</v>
       </c>
-      <c r="EC1" s="1">
+      <c r="EC1" s="10">
         <v>1993</v>
       </c>
-      <c r="ED1" s="1">
+      <c r="ED1" s="10">
         <v>1994</v>
       </c>
-      <c r="EE1" s="1">
+      <c r="EE1" s="10">
         <v>1995</v>
       </c>
-      <c r="EF1" s="1">
+      <c r="EF1" s="10">
         <v>1996</v>
       </c>
-      <c r="EG1" s="1">
+      <c r="EG1" s="10">
         <v>1997</v>
       </c>
-      <c r="EH1" s="1">
+      <c r="EH1" s="10">
         <v>1998</v>
       </c>
-      <c r="EI1" s="1">
+      <c r="EI1" s="10">
         <v>1999</v>
       </c>
-      <c r="EJ1" s="1">
+      <c r="EJ1" s="10">
         <v>2000</v>
       </c>
-      <c r="EK1" s="1">
+      <c r="EK1" s="10">
         <v>2001</v>
       </c>
-      <c r="EL1" s="1">
+      <c r="EL1" s="10">
         <v>2002</v>
       </c>
-      <c r="EM1" s="1">
+      <c r="EM1" s="10">
         <v>2003</v>
       </c>
-      <c r="EN1" s="1">
+      <c r="EN1" s="10">
         <v>2004</v>
       </c>
-      <c r="EO1" s="1">
+      <c r="EO1" s="10">
         <v>2005</v>
       </c>
-      <c r="EP1" s="1">
+      <c r="EP1" s="10">
         <v>2006</v>
       </c>
-      <c r="EQ1" s="1">
+      <c r="EQ1" s="10">
         <v>2007</v>
       </c>
-      <c r="ER1" s="1">
+      <c r="ER1" s="10">
         <v>2008</v>
       </c>
-      <c r="ES1" s="1">
+      <c r="ES1" s="10">
         <v>2009</v>
       </c>
-      <c r="ET1" s="1">
+      <c r="ET1" s="10">
         <v>2010</v>
       </c>
-      <c r="EU1" s="1">
+      <c r="EU1" s="10">
         <v>2011</v>
       </c>
-      <c r="EV1" s="1">
+      <c r="EV1" s="10">
         <v>2012</v>
       </c>
-      <c r="EW1" s="1">
+      <c r="EW1" s="10">
         <v>2013</v>
       </c>
-      <c r="EX1" s="1">
+      <c r="EX1" s="10">
         <v>2014</v>
       </c>
-      <c r="EY1" s="1">
+      <c r="EY1" s="10">
         <v>2015</v>
       </c>
-      <c r="EZ1" s="1">
+      <c r="EZ1" s="10">
         <v>2016</v>
       </c>
-      <c r="FA1" s="1">
+      <c r="FA1" s="10">
         <v>2017</v>
       </c>
-      <c r="FB1" s="1">
+      <c r="FB1" s="10">
         <v>2018</v>
       </c>
-      <c r="FC1" s="1">
+      <c r="FC1" s="10">
         <v>2019</v>
       </c>
+    </row>
+    <row r="2" ht="16" customHeight="1">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="11"/>
+      <c r="BQ2" s="11"/>
+      <c r="BR2" s="11"/>
+      <c r="BS2" s="11"/>
+      <c r="BT2" s="11"/>
+      <c r="BU2" s="11"/>
+      <c r="BV2" s="11"/>
+      <c r="BW2" s="11"/>
+      <c r="BX2" s="11"/>
+      <c r="BY2" s="11"/>
+      <c r="BZ2" s="11"/>
+      <c r="CA2" s="11"/>
+      <c r="CB2" s="11"/>
+      <c r="CC2" s="11"/>
+      <c r="CD2" s="11"/>
+      <c r="CE2" s="11"/>
+      <c r="CF2" s="11"/>
+      <c r="CG2" s="11"/>
+      <c r="CH2" s="11"/>
+      <c r="CI2" s="11"/>
+      <c r="CJ2" s="11"/>
+      <c r="CK2" s="11"/>
+      <c r="CL2" s="11"/>
+      <c r="CM2" s="11"/>
+      <c r="CN2" s="11"/>
+      <c r="CO2" s="11"/>
+      <c r="CP2" s="11"/>
+      <c r="CQ2" s="11"/>
+      <c r="CR2" s="11"/>
+      <c r="CS2" s="11"/>
+      <c r="CT2" s="11"/>
+      <c r="CU2" s="11"/>
+      <c r="CV2" s="11"/>
+      <c r="CW2" s="11"/>
+      <c r="CX2" s="11"/>
+      <c r="CY2" s="11"/>
+      <c r="CZ2" s="11"/>
+      <c r="DA2" s="11"/>
+      <c r="DB2" s="11"/>
+      <c r="DC2" s="11"/>
+      <c r="DD2" s="11"/>
+      <c r="DE2" s="11"/>
+      <c r="DF2" s="11"/>
+      <c r="DG2" s="11"/>
+      <c r="DH2" s="11"/>
+      <c r="DI2" s="11"/>
+      <c r="DJ2" s="11"/>
+      <c r="DK2" s="11"/>
+      <c r="DL2" s="11"/>
+      <c r="DM2" s="11"/>
+      <c r="DN2" s="11"/>
+      <c r="DO2" s="11"/>
+      <c r="DP2" s="11"/>
+      <c r="DQ2" s="11"/>
+      <c r="DR2" s="11"/>
+      <c r="DS2" s="11"/>
+      <c r="DT2" s="11"/>
+      <c r="DU2" s="11"/>
+      <c r="DV2" s="11"/>
+      <c r="DW2" s="11"/>
+      <c r="DX2" s="11"/>
+      <c r="DY2" s="11"/>
+      <c r="DZ2" s="11"/>
+      <c r="EA2" s="11"/>
+      <c r="EB2" s="11"/>
+      <c r="EC2" s="11"/>
+      <c r="ED2" s="11"/>
+      <c r="EE2" s="11"/>
+      <c r="EF2" s="11"/>
+      <c r="EG2" s="11"/>
+      <c r="EH2" s="11"/>
+      <c r="EI2" s="11"/>
+      <c r="EJ2" s="11"/>
+      <c r="EK2" s="11"/>
+      <c r="EL2" s="11"/>
+      <c r="EM2" s="11"/>
+      <c r="EN2" s="11"/>
+      <c r="EO2" s="11"/>
+      <c r="EP2" s="11"/>
+      <c r="EQ2" s="11"/>
+      <c r="ER2" s="11"/>
+      <c r="ES2" s="11"/>
+      <c r="ET2" s="11"/>
+      <c r="EU2" s="11"/>
+      <c r="EV2" s="11"/>
+      <c r="EW2" s="11"/>
+      <c r="EX2" s="11"/>
+      <c r="EY2" s="11"/>
+      <c r="EZ2" s="11"/>
+      <c r="FA2" s="11"/>
+      <c r="FB2" s="11"/>
+      <c r="FC2" s="11"/>
+    </row>
+    <row r="3" ht="16" customHeight="1">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="12"/>
+      <c r="BM3" s="12"/>
+      <c r="BN3" s="12"/>
+      <c r="BO3" s="12"/>
+      <c r="BP3" s="12"/>
+      <c r="BQ3" s="12"/>
+      <c r="BR3" s="12"/>
+      <c r="BS3" s="12"/>
+      <c r="BT3" s="12"/>
+      <c r="BU3" s="12"/>
+      <c r="BV3" s="12"/>
+      <c r="BW3" s="12"/>
+      <c r="BX3" s="12"/>
+      <c r="BY3" s="12"/>
+      <c r="BZ3" s="12"/>
+      <c r="CA3" s="12"/>
+      <c r="CB3" s="12"/>
+      <c r="CC3" s="12"/>
+      <c r="CD3" s="12"/>
+      <c r="CE3" s="12"/>
+      <c r="CF3" s="12"/>
+      <c r="CG3" s="12"/>
+      <c r="CH3" s="12"/>
+      <c r="CI3" s="12"/>
+      <c r="CJ3" s="12"/>
+      <c r="CK3" s="12"/>
+      <c r="CL3" s="12"/>
+      <c r="CM3" s="12"/>
+      <c r="CN3" s="12"/>
+      <c r="CO3" s="12"/>
+      <c r="CP3" s="12"/>
+      <c r="CQ3" s="12"/>
+      <c r="CR3" s="12"/>
+      <c r="CS3" s="12"/>
+      <c r="CT3" s="12"/>
+      <c r="CU3" s="12"/>
+      <c r="CV3" s="12"/>
+      <c r="CW3" s="12"/>
+      <c r="CX3" s="12"/>
+      <c r="CY3" s="12"/>
+      <c r="CZ3" s="12"/>
+      <c r="DA3" s="12"/>
+      <c r="DB3" s="12"/>
+      <c r="DC3" s="12"/>
+      <c r="DD3" s="12"/>
+      <c r="DE3" s="12"/>
+      <c r="DF3" s="12"/>
+      <c r="DG3" s="12"/>
+      <c r="DH3" s="12"/>
+      <c r="DI3" s="12"/>
+      <c r="DJ3" s="12"/>
+      <c r="DK3" s="12"/>
+      <c r="DL3" s="12"/>
+      <c r="DM3" s="12"/>
+      <c r="DN3" s="12"/>
+      <c r="DO3" s="12"/>
+      <c r="DP3" s="12"/>
+      <c r="DQ3" s="12"/>
+      <c r="DR3" s="12"/>
+      <c r="DS3" s="12"/>
+      <c r="DT3" s="12"/>
+      <c r="DU3" s="12"/>
+      <c r="DV3" s="12"/>
+      <c r="DW3" s="12"/>
+      <c r="DX3" s="12"/>
+      <c r="DY3" s="12"/>
+      <c r="DZ3" s="12"/>
+      <c r="EA3" s="12"/>
+      <c r="EB3" s="12"/>
+      <c r="EC3" s="12"/>
+      <c r="ED3" s="12"/>
+      <c r="EE3" s="12"/>
+      <c r="EF3" s="12"/>
+      <c r="EG3" s="12"/>
+      <c r="EH3" s="12"/>
+      <c r="EI3" s="12"/>
+      <c r="EJ3" s="12"/>
+      <c r="EK3" s="12"/>
+      <c r="EL3" s="12"/>
+      <c r="EM3" s="12"/>
+      <c r="EN3" s="12"/>
+      <c r="EO3" s="12"/>
+      <c r="EP3" s="12"/>
+      <c r="EQ3" s="12"/>
+      <c r="ER3" s="12"/>
+      <c r="ES3" s="12"/>
+      <c r="ET3" s="12"/>
+      <c r="EU3" s="12"/>
+      <c r="EV3" s="12"/>
+      <c r="EW3" s="12"/>
+      <c r="EX3" s="12"/>
+      <c r="EY3" s="12"/>
+      <c r="EZ3" s="12"/>
+      <c r="FA3" s="12"/>
+      <c r="FB3" s="12"/>
+      <c r="FC3" s="12"/>
+    </row>
+    <row r="4" ht="16" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BC4" s="12"/>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BL4" s="12"/>
+      <c r="BM4" s="12"/>
+      <c r="BN4" s="12"/>
+      <c r="BO4" s="12"/>
+      <c r="BP4" s="12"/>
+      <c r="BQ4" s="12"/>
+      <c r="BR4" s="12"/>
+      <c r="BS4" s="12"/>
+      <c r="BT4" s="12"/>
+      <c r="BU4" s="12"/>
+      <c r="BV4" s="12"/>
+      <c r="BW4" s="12"/>
+      <c r="BX4" s="12"/>
+      <c r="BY4" s="12"/>
+      <c r="BZ4" s="12"/>
+      <c r="CA4" s="12"/>
+      <c r="CB4" s="12"/>
+      <c r="CC4" s="12"/>
+      <c r="CD4" s="12"/>
+      <c r="CE4" s="12"/>
+      <c r="CF4" s="12"/>
+      <c r="CG4" s="12"/>
+      <c r="CH4" s="12"/>
+      <c r="CI4" s="12"/>
+      <c r="CJ4" s="12"/>
+      <c r="CK4" s="12"/>
+      <c r="CL4" s="12"/>
+      <c r="CM4" s="12"/>
+      <c r="CN4" s="12"/>
+      <c r="CO4" s="12"/>
+      <c r="CP4" s="12"/>
+      <c r="CQ4" s="12"/>
+      <c r="CR4" s="12"/>
+      <c r="CS4" s="12"/>
+      <c r="CT4" s="12"/>
+      <c r="CU4" s="12"/>
+      <c r="CV4" s="12"/>
+      <c r="CW4" s="12"/>
+      <c r="CX4" s="12"/>
+      <c r="CY4" s="12"/>
+      <c r="CZ4" s="12"/>
+      <c r="DA4" s="12"/>
+      <c r="DB4" s="12"/>
+      <c r="DC4" s="12"/>
+      <c r="DD4" s="12"/>
+      <c r="DE4" s="12"/>
+      <c r="DF4" s="12"/>
+      <c r="DG4" s="12"/>
+      <c r="DH4" s="12"/>
+      <c r="DI4" s="12"/>
+      <c r="DJ4" s="12"/>
+      <c r="DK4" s="12"/>
+      <c r="DL4" s="12"/>
+      <c r="DM4" s="12"/>
+      <c r="DN4" s="12"/>
+      <c r="DO4" s="12"/>
+      <c r="DP4" s="12"/>
+      <c r="DQ4" s="12"/>
+      <c r="DR4" s="12"/>
+      <c r="DS4" s="12"/>
+      <c r="DT4" s="12"/>
+      <c r="DU4" s="12"/>
+      <c r="DV4" s="12"/>
+      <c r="DW4" s="12"/>
+      <c r="DX4" s="12"/>
+      <c r="DY4" s="12"/>
+      <c r="DZ4" s="12"/>
+      <c r="EA4" s="12"/>
+      <c r="EB4" s="12"/>
+      <c r="EC4" s="12"/>
+      <c r="ED4" s="12"/>
+      <c r="EE4" s="12"/>
+      <c r="EF4" s="12"/>
+      <c r="EG4" s="12"/>
+      <c r="EH4" s="12"/>
+      <c r="EI4" s="12"/>
+      <c r="EJ4" s="12"/>
+      <c r="EK4" s="12"/>
+      <c r="EL4" s="12"/>
+      <c r="EM4" s="12"/>
+      <c r="EN4" s="12"/>
+      <c r="EO4" s="12"/>
+      <c r="EP4" s="12"/>
+      <c r="EQ4" s="12"/>
+      <c r="ER4" s="12"/>
+      <c r="ES4" s="12"/>
+      <c r="ET4" s="12"/>
+      <c r="EU4" s="12"/>
+      <c r="EV4" s="12"/>
+      <c r="EW4" s="12"/>
+      <c r="EX4" s="12"/>
+      <c r="EY4" s="12"/>
+      <c r="EZ4" s="12"/>
+      <c r="FA4" s="12"/>
+      <c r="FB4" s="12"/>
+      <c r="FC4" s="12"/>
+    </row>
+    <row r="5" ht="16" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+      <c r="BK5" s="12"/>
+      <c r="BL5" s="12"/>
+      <c r="BM5" s="12"/>
+      <c r="BN5" s="12"/>
+      <c r="BO5" s="12"/>
+      <c r="BP5" s="12"/>
+      <c r="BQ5" s="12"/>
+      <c r="BR5" s="12"/>
+      <c r="BS5" s="12"/>
+      <c r="BT5" s="12"/>
+      <c r="BU5" s="12"/>
+      <c r="BV5" s="12"/>
+      <c r="BW5" s="12"/>
+      <c r="BX5" s="12"/>
+      <c r="BY5" s="12"/>
+      <c r="BZ5" s="12"/>
+      <c r="CA5" s="12"/>
+      <c r="CB5" s="12"/>
+      <c r="CC5" s="12"/>
+      <c r="CD5" s="12"/>
+      <c r="CE5" s="12"/>
+      <c r="CF5" s="12"/>
+      <c r="CG5" s="12"/>
+      <c r="CH5" s="12"/>
+      <c r="CI5" s="12"/>
+      <c r="CJ5" s="12"/>
+      <c r="CK5" s="12"/>
+      <c r="CL5" s="12"/>
+      <c r="CM5" s="12"/>
+      <c r="CN5" s="12"/>
+      <c r="CO5" s="12"/>
+      <c r="CP5" s="12"/>
+      <c r="CQ5" s="12"/>
+      <c r="CR5" s="12"/>
+      <c r="CS5" s="12"/>
+      <c r="CT5" s="12"/>
+      <c r="CU5" s="12"/>
+      <c r="CV5" s="12"/>
+      <c r="CW5" s="12"/>
+      <c r="CX5" s="12"/>
+      <c r="CY5" s="12"/>
+      <c r="CZ5" s="12"/>
+      <c r="DA5" s="12"/>
+      <c r="DB5" s="12"/>
+      <c r="DC5" s="12"/>
+      <c r="DD5" s="12"/>
+      <c r="DE5" s="12"/>
+      <c r="DF5" s="12"/>
+      <c r="DG5" s="12"/>
+      <c r="DH5" s="12"/>
+      <c r="DI5" s="12"/>
+      <c r="DJ5" s="12"/>
+      <c r="DK5" s="12"/>
+      <c r="DL5" s="12"/>
+      <c r="DM5" s="12"/>
+      <c r="DN5" s="12"/>
+      <c r="DO5" s="12"/>
+      <c r="DP5" s="12"/>
+      <c r="DQ5" s="12"/>
+      <c r="DR5" s="12"/>
+      <c r="DS5" s="12"/>
+      <c r="DT5" s="12"/>
+      <c r="DU5" s="12"/>
+      <c r="DV5" s="12"/>
+      <c r="DW5" s="12"/>
+      <c r="DX5" s="12"/>
+      <c r="DY5" s="12"/>
+      <c r="DZ5" s="12"/>
+      <c r="EA5" s="12"/>
+      <c r="EB5" s="12"/>
+      <c r="EC5" s="12"/>
+      <c r="ED5" s="12"/>
+      <c r="EE5" s="12"/>
+      <c r="EF5" s="12"/>
+      <c r="EG5" s="12"/>
+      <c r="EH5" s="12"/>
+      <c r="EI5" s="12"/>
+      <c r="EJ5" s="12"/>
+      <c r="EK5" s="12"/>
+      <c r="EL5" s="12"/>
+      <c r="EM5" s="12"/>
+      <c r="EN5" s="12"/>
+      <c r="EO5" s="12"/>
+      <c r="EP5" s="12"/>
+      <c r="EQ5" s="12"/>
+      <c r="ER5" s="12"/>
+      <c r="ES5" s="12"/>
+      <c r="ET5" s="12"/>
+      <c r="EU5" s="12"/>
+      <c r="EV5" s="12"/>
+      <c r="EW5" s="12"/>
+      <c r="EX5" s="12"/>
+      <c r="EY5" s="12"/>
+      <c r="EZ5" s="12"/>
+      <c r="FA5" s="12"/>
+      <c r="FB5" s="12"/>
+      <c r="FC5" s="12"/>
+    </row>
+    <row r="6" ht="16" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="12"/>
+      <c r="BE6" s="12"/>
+      <c r="BF6" s="12"/>
+      <c r="BG6" s="12"/>
+      <c r="BH6" s="12"/>
+      <c r="BI6" s="12"/>
+      <c r="BJ6" s="12"/>
+      <c r="BK6" s="12"/>
+      <c r="BL6" s="12"/>
+      <c r="BM6" s="12"/>
+      <c r="BN6" s="12"/>
+      <c r="BO6" s="12"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="12"/>
+      <c r="BY6" s="12"/>
+      <c r="BZ6" s="12"/>
+      <c r="CA6" s="12"/>
+      <c r="CB6" s="12"/>
+      <c r="CC6" s="12"/>
+      <c r="CD6" s="12"/>
+      <c r="CE6" s="12"/>
+      <c r="CF6" s="12"/>
+      <c r="CG6" s="12"/>
+      <c r="CH6" s="12"/>
+      <c r="CI6" s="12"/>
+      <c r="CJ6" s="12"/>
+      <c r="CK6" s="12"/>
+      <c r="CL6" s="12"/>
+      <c r="CM6" s="12"/>
+      <c r="CN6" s="12"/>
+      <c r="CO6" s="12"/>
+      <c r="CP6" s="12"/>
+      <c r="CQ6" s="12"/>
+      <c r="CR6" s="12"/>
+      <c r="CS6" s="12"/>
+      <c r="CT6" s="12"/>
+      <c r="CU6" s="12"/>
+      <c r="CV6" s="12"/>
+      <c r="CW6" s="12"/>
+      <c r="CX6" s="12"/>
+      <c r="CY6" s="12"/>
+      <c r="CZ6" s="12"/>
+      <c r="DA6" s="12"/>
+      <c r="DB6" s="12"/>
+      <c r="DC6" s="12"/>
+      <c r="DD6" s="12"/>
+      <c r="DE6" s="12"/>
+      <c r="DF6" s="12"/>
+      <c r="DG6" s="12"/>
+      <c r="DH6" s="12"/>
+      <c r="DI6" s="12"/>
+      <c r="DJ6" s="12"/>
+      <c r="DK6" s="12"/>
+      <c r="DL6" s="12"/>
+      <c r="DM6" s="12"/>
+      <c r="DN6" s="12"/>
+      <c r="DO6" s="12"/>
+      <c r="DP6" s="12"/>
+      <c r="DQ6" s="12"/>
+      <c r="DR6" s="12"/>
+      <c r="DS6" s="12"/>
+      <c r="DT6" s="12"/>
+      <c r="DU6" s="12"/>
+      <c r="DV6" s="12"/>
+      <c r="DW6" s="12"/>
+      <c r="DX6" s="12"/>
+      <c r="DY6" s="12"/>
+      <c r="DZ6" s="12"/>
+      <c r="EA6" s="12"/>
+      <c r="EB6" s="12"/>
+      <c r="EC6" s="12"/>
+      <c r="ED6" s="12"/>
+      <c r="EE6" s="12"/>
+      <c r="EF6" s="12"/>
+      <c r="EG6" s="12"/>
+      <c r="EH6" s="12"/>
+      <c r="EI6" s="12"/>
+      <c r="EJ6" s="12"/>
+      <c r="EK6" s="12"/>
+      <c r="EL6" s="12"/>
+      <c r="EM6" s="12"/>
+      <c r="EN6" s="12"/>
+      <c r="EO6" s="12"/>
+      <c r="EP6" s="12"/>
+      <c r="EQ6" s="12"/>
+      <c r="ER6" s="12"/>
+      <c r="ES6" s="12"/>
+      <c r="ET6" s="12"/>
+      <c r="EU6" s="12"/>
+      <c r="EV6" s="12"/>
+      <c r="EW6" s="12"/>
+      <c r="EX6" s="12"/>
+      <c r="EY6" s="12"/>
+      <c r="EZ6" s="12"/>
+      <c r="FA6" s="12"/>
+      <c r="FB6" s="12"/>
+      <c r="FC6" s="12"/>
+    </row>
+    <row r="7" ht="16" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="12"/>
+      <c r="BI7" s="12"/>
+      <c r="BJ7" s="12"/>
+      <c r="BK7" s="12"/>
+      <c r="BL7" s="12"/>
+      <c r="BM7" s="12"/>
+      <c r="BN7" s="12"/>
+      <c r="BO7" s="12"/>
+      <c r="BP7" s="12"/>
+      <c r="BQ7" s="12"/>
+      <c r="BR7" s="12"/>
+      <c r="BS7" s="12"/>
+      <c r="BT7" s="12"/>
+      <c r="BU7" s="12"/>
+      <c r="BV7" s="12"/>
+      <c r="BW7" s="12"/>
+      <c r="BX7" s="12"/>
+      <c r="BY7" s="12"/>
+      <c r="BZ7" s="12"/>
+      <c r="CA7" s="12"/>
+      <c r="CB7" s="12"/>
+      <c r="CC7" s="12"/>
+      <c r="CD7" s="12"/>
+      <c r="CE7" s="12"/>
+      <c r="CF7" s="12"/>
+      <c r="CG7" s="12"/>
+      <c r="CH7" s="12"/>
+      <c r="CI7" s="12"/>
+      <c r="CJ7" s="12"/>
+      <c r="CK7" s="12"/>
+      <c r="CL7" s="12"/>
+      <c r="CM7" s="12"/>
+      <c r="CN7" s="12"/>
+      <c r="CO7" s="12"/>
+      <c r="CP7" s="12"/>
+      <c r="CQ7" s="12"/>
+      <c r="CR7" s="12"/>
+      <c r="CS7" s="12"/>
+      <c r="CT7" s="12"/>
+      <c r="CU7" s="12"/>
+      <c r="CV7" s="12"/>
+      <c r="CW7" s="12"/>
+      <c r="CX7" s="12"/>
+      <c r="CY7" s="12"/>
+      <c r="CZ7" s="12"/>
+      <c r="DA7" s="12"/>
+      <c r="DB7" s="12"/>
+      <c r="DC7" s="12"/>
+      <c r="DD7" s="12"/>
+      <c r="DE7" s="12"/>
+      <c r="DF7" s="12"/>
+      <c r="DG7" s="12"/>
+      <c r="DH7" s="12"/>
+      <c r="DI7" s="12"/>
+      <c r="DJ7" s="12"/>
+      <c r="DK7" s="12"/>
+      <c r="DL7" s="12"/>
+      <c r="DM7" s="12"/>
+      <c r="DN7" s="12"/>
+      <c r="DO7" s="12"/>
+      <c r="DP7" s="12"/>
+      <c r="DQ7" s="12"/>
+      <c r="DR7" s="12"/>
+      <c r="DS7" s="12"/>
+      <c r="DT7" s="12"/>
+      <c r="DU7" s="12"/>
+      <c r="DV7" s="12"/>
+      <c r="DW7" s="12"/>
+      <c r="DX7" s="12"/>
+      <c r="DY7" s="12"/>
+      <c r="DZ7" s="12"/>
+      <c r="EA7" s="12"/>
+      <c r="EB7" s="12"/>
+      <c r="EC7" s="12"/>
+      <c r="ED7" s="12"/>
+      <c r="EE7" s="12"/>
+      <c r="EF7" s="12"/>
+      <c r="EG7" s="12"/>
+      <c r="EH7" s="12"/>
+      <c r="EI7" s="12"/>
+      <c r="EJ7" s="12"/>
+      <c r="EK7" s="12"/>
+      <c r="EL7" s="12"/>
+      <c r="EM7" s="12"/>
+      <c r="EN7" s="12"/>
+      <c r="EO7" s="12"/>
+      <c r="EP7" s="12"/>
+      <c r="EQ7" s="12"/>
+      <c r="ER7" s="12"/>
+      <c r="ES7" s="12"/>
+      <c r="ET7" s="12"/>
+      <c r="EU7" s="12"/>
+      <c r="EV7" s="12"/>
+      <c r="EW7" s="12"/>
+      <c r="EX7" s="12"/>
+      <c r="EY7" s="12"/>
+      <c r="EZ7" s="12"/>
+      <c r="FA7" s="12"/>
+      <c r="FB7" s="12"/>
+      <c r="FC7" s="12"/>
+    </row>
+    <row r="8" ht="16" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12"/>
+      <c r="AU8" s="12"/>
+      <c r="AV8" s="12"/>
+      <c r="AW8" s="12"/>
+      <c r="AX8" s="12"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="12"/>
+      <c r="BA8" s="12"/>
+      <c r="BB8" s="12"/>
+      <c r="BC8" s="12"/>
+      <c r="BD8" s="12"/>
+      <c r="BE8" s="12"/>
+      <c r="BF8" s="12"/>
+      <c r="BG8" s="12"/>
+      <c r="BH8" s="12"/>
+      <c r="BI8" s="12"/>
+      <c r="BJ8" s="12"/>
+      <c r="BK8" s="12"/>
+      <c r="BL8" s="12"/>
+      <c r="BM8" s="12"/>
+      <c r="BN8" s="12"/>
+      <c r="BO8" s="12"/>
+      <c r="BP8" s="12"/>
+      <c r="BQ8" s="12"/>
+      <c r="BR8" s="12"/>
+      <c r="BS8" s="12"/>
+      <c r="BT8" s="12"/>
+      <c r="BU8" s="12"/>
+      <c r="BV8" s="12"/>
+      <c r="BW8" s="12"/>
+      <c r="BX8" s="12"/>
+      <c r="BY8" s="12"/>
+      <c r="BZ8" s="12"/>
+      <c r="CA8" s="12"/>
+      <c r="CB8" s="12"/>
+      <c r="CC8" s="12"/>
+      <c r="CD8" s="12"/>
+      <c r="CE8" s="12"/>
+      <c r="CF8" s="12"/>
+      <c r="CG8" s="12"/>
+      <c r="CH8" s="12"/>
+      <c r="CI8" s="12"/>
+      <c r="CJ8" s="12"/>
+      <c r="CK8" s="12"/>
+      <c r="CL8" s="12"/>
+      <c r="CM8" s="12"/>
+      <c r="CN8" s="12"/>
+      <c r="CO8" s="12"/>
+      <c r="CP8" s="12"/>
+      <c r="CQ8" s="12"/>
+      <c r="CR8" s="12"/>
+      <c r="CS8" s="12"/>
+      <c r="CT8" s="12"/>
+      <c r="CU8" s="12"/>
+      <c r="CV8" s="12"/>
+      <c r="CW8" s="12"/>
+      <c r="CX8" s="12"/>
+      <c r="CY8" s="12"/>
+      <c r="CZ8" s="12"/>
+      <c r="DA8" s="12"/>
+      <c r="DB8" s="12"/>
+      <c r="DC8" s="12"/>
+      <c r="DD8" s="12"/>
+      <c r="DE8" s="12"/>
+      <c r="DF8" s="12"/>
+      <c r="DG8" s="12"/>
+      <c r="DH8" s="12"/>
+      <c r="DI8" s="12"/>
+      <c r="DJ8" s="12"/>
+      <c r="DK8" s="12"/>
+      <c r="DL8" s="12"/>
+      <c r="DM8" s="12"/>
+      <c r="DN8" s="12"/>
+      <c r="DO8" s="12"/>
+      <c r="DP8" s="12"/>
+      <c r="DQ8" s="12"/>
+      <c r="DR8" s="12"/>
+      <c r="DS8" s="12"/>
+      <c r="DT8" s="12"/>
+      <c r="DU8" s="12"/>
+      <c r="DV8" s="12"/>
+      <c r="DW8" s="12"/>
+      <c r="DX8" s="12"/>
+      <c r="DY8" s="12"/>
+      <c r="DZ8" s="12"/>
+      <c r="EA8" s="12"/>
+      <c r="EB8" s="12"/>
+      <c r="EC8" s="12"/>
+      <c r="ED8" s="12"/>
+      <c r="EE8" s="12"/>
+      <c r="EF8" s="12"/>
+      <c r="EG8" s="12"/>
+      <c r="EH8" s="12"/>
+      <c r="EI8" s="12"/>
+      <c r="EJ8" s="12"/>
+      <c r="EK8" s="12"/>
+      <c r="EL8" s="12"/>
+      <c r="EM8" s="12"/>
+      <c r="EN8" s="12"/>
+      <c r="EO8" s="12"/>
+      <c r="EP8" s="12"/>
+      <c r="EQ8" s="12"/>
+      <c r="ER8" s="12"/>
+      <c r="ES8" s="12"/>
+      <c r="ET8" s="12"/>
+      <c r="EU8" s="12"/>
+      <c r="EV8" s="12"/>
+      <c r="EW8" s="12"/>
+      <c r="EX8" s="12"/>
+      <c r="EY8" s="12"/>
+      <c r="EZ8" s="12"/>
+      <c r="FA8" s="12"/>
+      <c r="FB8" s="12"/>
+      <c r="FC8" s="12"/>
+    </row>
+    <row r="9" ht="16" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+      <c r="BH9" s="12"/>
+      <c r="BI9" s="12"/>
+      <c r="BJ9" s="12"/>
+      <c r="BK9" s="12"/>
+      <c r="BL9" s="12"/>
+      <c r="BM9" s="12"/>
+      <c r="BN9" s="12"/>
+      <c r="BO9" s="12"/>
+      <c r="BP9" s="12"/>
+      <c r="BQ9" s="12"/>
+      <c r="BR9" s="12"/>
+      <c r="BS9" s="12"/>
+      <c r="BT9" s="12"/>
+      <c r="BU9" s="12"/>
+      <c r="BV9" s="12"/>
+      <c r="BW9" s="12"/>
+      <c r="BX9" s="12"/>
+      <c r="BY9" s="12"/>
+      <c r="BZ9" s="12"/>
+      <c r="CA9" s="12"/>
+      <c r="CB9" s="12"/>
+      <c r="CC9" s="12"/>
+      <c r="CD9" s="12"/>
+      <c r="CE9" s="12"/>
+      <c r="CF9" s="12"/>
+      <c r="CG9" s="12"/>
+      <c r="CH9" s="12"/>
+      <c r="CI9" s="12"/>
+      <c r="CJ9" s="12"/>
+      <c r="CK9" s="12"/>
+      <c r="CL9" s="12"/>
+      <c r="CM9" s="12"/>
+      <c r="CN9" s="12"/>
+      <c r="CO9" s="12"/>
+      <c r="CP9" s="12"/>
+      <c r="CQ9" s="12"/>
+      <c r="CR9" s="12"/>
+      <c r="CS9" s="12"/>
+      <c r="CT9" s="12"/>
+      <c r="CU9" s="12"/>
+      <c r="CV9" s="12"/>
+      <c r="CW9" s="12"/>
+      <c r="CX9" s="12"/>
+      <c r="CY9" s="12"/>
+      <c r="CZ9" s="12"/>
+      <c r="DA9" s="12"/>
+      <c r="DB9" s="12"/>
+      <c r="DC9" s="12"/>
+      <c r="DD9" s="12"/>
+      <c r="DE9" s="12"/>
+      <c r="DF9" s="12"/>
+      <c r="DG9" s="12"/>
+      <c r="DH9" s="12"/>
+      <c r="DI9" s="12"/>
+      <c r="DJ9" s="12"/>
+      <c r="DK9" s="12"/>
+      <c r="DL9" s="12"/>
+      <c r="DM9" s="12"/>
+      <c r="DN9" s="12"/>
+      <c r="DO9" s="12"/>
+      <c r="DP9" s="12"/>
+      <c r="DQ9" s="12"/>
+      <c r="DR9" s="12"/>
+      <c r="DS9" s="12"/>
+      <c r="DT9" s="12"/>
+      <c r="DU9" s="12"/>
+      <c r="DV9" s="12"/>
+      <c r="DW9" s="12"/>
+      <c r="DX9" s="12"/>
+      <c r="DY9" s="12"/>
+      <c r="DZ9" s="12"/>
+      <c r="EA9" s="12"/>
+      <c r="EB9" s="12"/>
+      <c r="EC9" s="12"/>
+      <c r="ED9" s="12"/>
+      <c r="EE9" s="12"/>
+      <c r="EF9" s="12"/>
+      <c r="EG9" s="12"/>
+      <c r="EH9" s="12"/>
+      <c r="EI9" s="12"/>
+      <c r="EJ9" s="12"/>
+      <c r="EK9" s="12"/>
+      <c r="EL9" s="12"/>
+      <c r="EM9" s="12"/>
+      <c r="EN9" s="12"/>
+      <c r="EO9" s="12"/>
+      <c r="EP9" s="12"/>
+      <c r="EQ9" s="12"/>
+      <c r="ER9" s="12"/>
+      <c r="ES9" s="12"/>
+      <c r="ET9" s="12"/>
+      <c r="EU9" s="12"/>
+      <c r="EV9" s="12"/>
+      <c r="EW9" s="12"/>
+      <c r="EX9" s="12"/>
+      <c r="EY9" s="12"/>
+      <c r="EZ9" s="12"/>
+      <c r="FA9" s="12"/>
+      <c r="FB9" s="12"/>
+      <c r="FC9" s="12"/>
+    </row>
+    <row r="10" ht="16" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="12"/>
+      <c r="AW10" s="12"/>
+      <c r="AX10" s="12"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="12"/>
+      <c r="BA10" s="12"/>
+      <c r="BB10" s="12"/>
+      <c r="BC10" s="12"/>
+      <c r="BD10" s="12"/>
+      <c r="BE10" s="12"/>
+      <c r="BF10" s="12"/>
+      <c r="BG10" s="12"/>
+      <c r="BH10" s="12"/>
+      <c r="BI10" s="12"/>
+      <c r="BJ10" s="12"/>
+      <c r="BK10" s="12"/>
+      <c r="BL10" s="12"/>
+      <c r="BM10" s="12"/>
+      <c r="BN10" s="12"/>
+      <c r="BO10" s="12"/>
+      <c r="BP10" s="12"/>
+      <c r="BQ10" s="12"/>
+      <c r="BR10" s="12"/>
+      <c r="BS10" s="12"/>
+      <c r="BT10" s="12"/>
+      <c r="BU10" s="12"/>
+      <c r="BV10" s="12"/>
+      <c r="BW10" s="12"/>
+      <c r="BX10" s="12"/>
+      <c r="BY10" s="12"/>
+      <c r="BZ10" s="12"/>
+      <c r="CA10" s="12"/>
+      <c r="CB10" s="12"/>
+      <c r="CC10" s="12"/>
+      <c r="CD10" s="12"/>
+      <c r="CE10" s="12"/>
+      <c r="CF10" s="12"/>
+      <c r="CG10" s="12"/>
+      <c r="CH10" s="12"/>
+      <c r="CI10" s="12"/>
+      <c r="CJ10" s="12"/>
+      <c r="CK10" s="12"/>
+      <c r="CL10" s="12"/>
+      <c r="CM10" s="12"/>
+      <c r="CN10" s="12"/>
+      <c r="CO10" s="12"/>
+      <c r="CP10" s="12"/>
+      <c r="CQ10" s="12"/>
+      <c r="CR10" s="12"/>
+      <c r="CS10" s="12"/>
+      <c r="CT10" s="12"/>
+      <c r="CU10" s="12"/>
+      <c r="CV10" s="12"/>
+      <c r="CW10" s="12"/>
+      <c r="CX10" s="12"/>
+      <c r="CY10" s="12"/>
+      <c r="CZ10" s="12"/>
+      <c r="DA10" s="12"/>
+      <c r="DB10" s="12"/>
+      <c r="DC10" s="12"/>
+      <c r="DD10" s="12"/>
+      <c r="DE10" s="12"/>
+      <c r="DF10" s="12"/>
+      <c r="DG10" s="12"/>
+      <c r="DH10" s="12"/>
+      <c r="DI10" s="12"/>
+      <c r="DJ10" s="12"/>
+      <c r="DK10" s="12"/>
+      <c r="DL10" s="12"/>
+      <c r="DM10" s="12"/>
+      <c r="DN10" s="12"/>
+      <c r="DO10" s="12"/>
+      <c r="DP10" s="12"/>
+      <c r="DQ10" s="12"/>
+      <c r="DR10" s="12"/>
+      <c r="DS10" s="12"/>
+      <c r="DT10" s="12"/>
+      <c r="DU10" s="12"/>
+      <c r="DV10" s="12"/>
+      <c r="DW10" s="12"/>
+      <c r="DX10" s="12"/>
+      <c r="DY10" s="12"/>
+      <c r="DZ10" s="12"/>
+      <c r="EA10" s="12"/>
+      <c r="EB10" s="12"/>
+      <c r="EC10" s="12"/>
+      <c r="ED10" s="12"/>
+      <c r="EE10" s="12"/>
+      <c r="EF10" s="12"/>
+      <c r="EG10" s="12"/>
+      <c r="EH10" s="12"/>
+      <c r="EI10" s="12"/>
+      <c r="EJ10" s="12"/>
+      <c r="EK10" s="12"/>
+      <c r="EL10" s="12"/>
+      <c r="EM10" s="12"/>
+      <c r="EN10" s="12"/>
+      <c r="EO10" s="12"/>
+      <c r="EP10" s="12"/>
+      <c r="EQ10" s="12"/>
+      <c r="ER10" s="12"/>
+      <c r="ES10" s="12"/>
+      <c r="ET10" s="12"/>
+      <c r="EU10" s="12"/>
+      <c r="EV10" s="12"/>
+      <c r="EW10" s="12"/>
+      <c r="EX10" s="12"/>
+      <c r="EY10" s="12"/>
+      <c r="EZ10" s="12"/>
+      <c r="FA10" s="12"/>
+      <c r="FB10" s="12"/>
+      <c r="FC10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>